--- a/Feature-Analysis/Resize Feature/s_02_left.xlsx
+++ b/Feature-Analysis/Resize Feature/s_02_left.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.58762731485</v>
+        <v>738157.58762731485</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.58829861111</v>
+        <v>738157.58829861111</v>
       </c>
       <c r="C3" s="0">
         <v>57.999997213482857</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.58862268517</v>
+        <v>738157.58862268517</v>
       </c>
       <c r="C4" s="0">
         <v>85.999996215105057</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.58895833336</v>
+        <v>738157.58895833336</v>
       </c>
       <c r="C5" s="0">
         <v>114.99999985098839</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.58937499998</v>
+        <v>738157.58937499998</v>
       </c>
       <c r="C6" s="0">
         <v>150.99999569356441</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.58965277777</v>
+        <v>738157.58965277777</v>
       </c>
       <c r="C7" s="0">
         <v>174.9999962747097</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.5900115741</v>
+        <v>738157.5900115741</v>
       </c>
       <c r="C8" s="0">
         <v>205.99999912083149</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.5903587963</v>
+        <v>738157.5903587963</v>
       </c>
       <c r="C9" s="0">
         <v>235.99999733269215</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.59104166669</v>
+        <v>738157.59104166669</v>
       </c>
       <c r="C10" s="0">
         <v>294.99999918043613</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.59138888889</v>
+        <v>738157.59138888889</v>
       </c>
       <c r="C11" s="0">
         <v>324.99999739229679</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.59173611109</v>
+        <v>738157.59173611109</v>
       </c>
       <c r="C12" s="0">
         <v>354.99999560415745</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.59208333329</v>
+        <v>738157.59208333329</v>
       </c>
       <c r="C13" s="0">
         <v>384.9999938160181</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.59245370375</v>
+        <v>738157.59245370375</v>
       </c>
       <c r="C14" s="0">
         <v>417.00000129640102</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.59285879624</v>
+        <v>738157.59285879624</v>
       </c>
       <c r="C15" s="0">
         <v>451.99999250471592</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.59321759257</v>
+        <v>738157.59321759257</v>
       </c>
       <c r="C16" s="0">
         <v>482.99999535083771</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.59348379634</v>
+        <v>738157.59348379634</v>
       </c>
       <c r="C17" s="0">
         <v>506.00000135600567</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.59381944442</v>
+        <v>738157.59381944442</v>
       </c>
       <c r="C18" s="0">
         <v>534.99999493360519</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.59417824075</v>
+        <v>738157.59417824075</v>
       </c>
       <c r="C19" s="0">
         <v>565.99999777972698</v>
@@ -14197,7 +14197,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.59521990735</v>
+        <v>738157.59521990735</v>
       </c>
       <c r="C20" s="0">
         <v>655.99999241530895</v>
@@ -14892,7 +14892,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.59521990735</v>
+        <v>738157.59521990735</v>
       </c>
       <c r="C21" s="0">
         <v>655.99999241530895</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.59557870368</v>
+        <v>738157.59557870368</v>
       </c>
       <c r="C22" s="0">
         <v>686.99999526143074</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.59597222228</v>
+        <v>738157.59597222228</v>
       </c>
       <c r="C23" s="0">
         <v>721.00000195205212</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.59626157407</v>
+        <v>738157.59626157407</v>
       </c>
       <c r="C24" s="0">
         <v>745.99999710917473</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.59660879627</v>
+        <v>738157.59660879627</v>
       </c>
       <c r="C25" s="0">
         <v>775.99999532103539</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.59692129632</v>
+        <v>738157.59692129632</v>
       </c>
       <c r="C26" s="0">
         <v>802.99999974668026</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.59734953707</v>
+        <v>738157.59734953707</v>
       </c>
       <c r="C27" s="0">
         <v>840.00000022351742</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.59765046299</v>
+        <v>738157.59765046299</v>
       </c>
       <c r="C28" s="0">
         <v>866.00000001490116</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.5979976852</v>
+        <v>738157.5979976852</v>
       </c>
       <c r="C29" s="0">
         <v>895.99999822676182</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.5986921296</v>
+        <v>738157.5986921296</v>
       </c>
       <c r="C30" s="0">
         <v>955.99999465048313</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.59902777779</v>
+        <v>738157.59902777779</v>
       </c>
       <c r="C31" s="0">
         <v>984.99999828636646</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.59938657412</v>
+        <v>738157.59938657412</v>
       </c>
       <c r="C32" s="0">
         <v>1016.0000011324883</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.59980324074</v>
+        <v>738157.59980324074</v>
       </c>
       <c r="C33" s="0">
         <v>1051.9999969750643</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.60010416666</v>
+        <v>738157.60010416666</v>
       </c>
       <c r="C34" s="0">
         <v>1077.999996766448</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.60039351857</v>
+        <v>738157.60039351857</v>
       </c>
       <c r="C35" s="0">
         <v>1103.0000019818544</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.60077546292</v>
+        <v>738157.60077546292</v>
       </c>
       <c r="C36" s="0">
         <v>1135.9999939799309</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.60114583338</v>
+        <v>738157.60114583338</v>
       </c>
       <c r="C37" s="0">
         <v>1168.0000014603138</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.60148148146</v>
+        <v>738157.60148148146</v>
       </c>
       <c r="C38" s="0">
         <v>1196.9999950379133</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.60180555552</v>
+        <v>738157.60180555552</v>
       </c>
       <c r="C39" s="0">
         <v>1224.9999940395355</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.60250000004</v>
+        <v>738157.60250000004</v>
       </c>
       <c r="C40" s="0">
         <v>1285.0000005215406</v>
